--- a/menu.xlsx
+++ b/menu.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Cadastros e Consultas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -529,7 +528,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -528,13 +528,13 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
